--- a/sorensenLab/relatedToYbx1/design20210909_yb1Exon3CrisprKo/oligosDesignWorkbookInducibleYbx1.xlsx
+++ b/sorensenLab/relatedToYbx1/design20210909_yb1Exon3CrisprKo/oligosDesignWorkbookInducibleYbx1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chughes\Documents\bccrc\projectsWorkspace\sorensenLab\relatedToYbx1\design20210909_inducibleYbx1Construct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chughes\Documents\bccrc\projectsWorkspace\sorensenLab\relatedToYbx1\design20210909_yb1Exon3CrisprKo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -216,6 +216,24 @@
   </si>
   <si>
     <t xml:space="preserve">CCACTCGCTGGATAGCTGAC  </t>
+  </si>
+  <si>
+    <t>q5Tm</t>
+  </si>
+  <si>
+    <t>tcgacttcccctcttccgatg</t>
+  </si>
+  <si>
+    <t>CTCAGGTTCTGGGAGAGGGTAG</t>
+  </si>
+  <si>
+    <t>dna803</t>
+  </si>
+  <si>
+    <t>dna183</t>
+  </si>
+  <si>
+    <t>cut products around 400bp</t>
   </si>
 </sst>
 </file>
@@ -549,22 +567,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="57.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="15.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="15.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,13 +593,16 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -592,13 +613,16 @@
         <v>59</v>
       </c>
       <c r="D2" s="3">
+        <v>71</v>
+      </c>
+      <c r="E2" s="3">
         <v>1000</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -609,7 +633,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -617,7 +641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -625,7 +649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -636,13 +660,16 @@
         <v>59</v>
       </c>
       <c r="D6" s="3">
+        <v>71</v>
+      </c>
+      <c r="E6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -653,7 +680,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -664,13 +691,16 @@
         <v>55</v>
       </c>
       <c r="D8" s="3">
+        <v>66</v>
+      </c>
+      <c r="E8" s="3">
         <v>5600</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -681,7 +711,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -691,14 +721,14 @@
       <c r="C10" s="3">
         <v>66</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>8000</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -709,7 +739,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -720,10 +750,16 @@
         <v>55</v>
       </c>
       <c r="D12" s="3">
+        <v>66</v>
+      </c>
+      <c r="E12" s="3">
         <v>833</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -734,7 +770,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -742,7 +778,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -750,7 +786,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -758,7 +794,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -766,7 +802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -774,7 +810,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -784,11 +820,11 @@
       <c r="C19" s="3">
         <v>56</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -799,7 +835,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -809,11 +845,11 @@
       <c r="C21" s="3">
         <v>59</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -823,11 +859,11 @@
       <c r="C22" s="3">
         <v>60</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -838,7 +874,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -848,11 +884,11 @@
       <c r="C24" s="3">
         <v>57</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -862,11 +898,14 @@
       <c r="C25" s="3">
         <v>56</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D25" s="3">
+        <v>67</v>
+      </c>
+      <c r="F25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -876,12 +915,31 @@
       <c r="C26" s="3">
         <v>57</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="49" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>